--- a/cta策略/result/螺纹/Aberration_1d/绩效.xlsx
+++ b/cta策略/result/螺纹/Aberration_1d/绩效.xlsx
@@ -468,13 +468,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>-0.006479030615905157</v>
+        <v>0.01506853269963249</v>
       </c>
       <c r="D2">
-        <v>-0.1787186075627342</v>
+        <v>-0.1183977270150263</v>
       </c>
       <c r="E2">
-        <v>-0.01200865660695243</v>
+        <v>0.02910038475831054</v>
       </c>
       <c r="F2">
         <v>0.65</v>
@@ -488,13 +488,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.07013221586963136</v>
+        <v>0.06204786062431999</v>
       </c>
       <c r="D3">
-        <v>0.1249215382271194</v>
+        <v>0.1125163353958728</v>
       </c>
       <c r="E3">
-        <v>0.1383106275659699</v>
+        <v>0.1273913687697193</v>
       </c>
       <c r="F3">
         <v>0.65</v>
@@ -508,13 +508,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.05262422023609514</v>
+        <v>0.04666659439266785</v>
       </c>
       <c r="D4">
-        <v>0.05676204647195356</v>
+        <v>0.03685792798377942</v>
       </c>
       <c r="E4">
-        <v>0.1150435545517725</v>
+        <v>0.105905726510831</v>
       </c>
       <c r="F4">
         <v>0.7</v>
@@ -528,13 +528,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.03049713980893176</v>
+        <v>0.02614800102765447</v>
       </c>
       <c r="D5">
-        <v>-0.05575082549622061</v>
+        <v>-0.09979451763678954</v>
       </c>
       <c r="E5">
-        <v>0.1125012179971794</v>
+        <v>0.09920766243060283</v>
       </c>
       <c r="F5">
         <v>0.6</v>
@@ -548,13 +548,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.1326758847399707</v>
+        <v>0.09873706694935658</v>
       </c>
       <c r="D6">
-        <v>0.3603676927552482</v>
+        <v>0.2806901423622146</v>
       </c>
       <c r="E6">
-        <v>0.3287783705120622</v>
+        <v>0.2563735686313929</v>
       </c>
       <c r="F6">
         <v>0.7</v>
@@ -568,13 +568,13 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>0.1344498491036745</v>
+        <v>0.09674974285282256</v>
       </c>
       <c r="D7">
-        <v>0.3923555449644061</v>
+        <v>0.2893154768375744</v>
       </c>
       <c r="E7">
-        <v>0.3008385159678065</v>
+        <v>0.2204995736168905</v>
       </c>
       <c r="F7">
         <v>0.7</v>
@@ -588,16 +588,16 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>0.153451825600043</v>
+        <v>0.1067219920647593</v>
       </c>
       <c r="D8">
-        <v>0.4996982345425924</v>
+        <v>0.360320556591663</v>
       </c>
       <c r="E8">
-        <v>0.4247584249877616</v>
+        <v>0.3006224111266075</v>
       </c>
       <c r="F8">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -608,13 +608,13 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>0.136190667639327</v>
+        <v>0.09373808894088076</v>
       </c>
       <c r="D9">
-        <v>0.4868691244703101</v>
+        <v>0.3334461810305845</v>
       </c>
       <c r="E9">
-        <v>0.4078724686320132</v>
+        <v>0.2843309483376963</v>
       </c>
       <c r="F9">
         <v>0.65</v>
@@ -628,13 +628,13 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>0.07708349780525769</v>
+        <v>0.05632136641083663</v>
       </c>
       <c r="D10">
-        <v>0.1451042117740514</v>
+        <v>0.07826788342299566</v>
       </c>
       <c r="E10">
-        <v>0.167270033817821</v>
+        <v>0.1255294956784284</v>
       </c>
       <c r="F10">
         <v>0.65</v>
@@ -648,13 +648,13 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>0.02851603340201669</v>
+        <v>0.02314357042084869</v>
       </c>
       <c r="D11">
-        <v>-0.04672954231885317</v>
+        <v>-0.08404458628604375</v>
       </c>
       <c r="E11">
-        <v>0.05005051888174927</v>
+        <v>0.04117544487929026</v>
       </c>
       <c r="F11">
         <v>0.55</v>
@@ -668,13 +668,13 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>0.08673754809723744</v>
+        <v>0.06010668125293539</v>
       </c>
       <c r="D12">
-        <v>0.209244837805577</v>
+        <v>0.1102209539197009</v>
       </c>
       <c r="E12">
-        <v>0.197412942335053</v>
+        <v>0.138248098107921</v>
       </c>
       <c r="F12">
         <v>0.55</v>
@@ -688,13 +688,13 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>0.1096045095065601</v>
+        <v>0.07383808977014561</v>
       </c>
       <c r="D13">
-        <v>0.3414303504331057</v>
+        <v>0.2032240410621261</v>
       </c>
       <c r="E13">
-        <v>0.3271713434520439</v>
+        <v>0.2225488334349355</v>
       </c>
       <c r="F13">
         <v>0.55</v>
@@ -708,13 +708,13 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>0.2161514430179157</v>
+        <v>0.1424548751850923</v>
       </c>
       <c r="D14">
-        <v>0.7012239014102321</v>
+        <v>0.4991111963863336</v>
       </c>
       <c r="E14">
-        <v>0.6653172447209119</v>
+        <v>0.4393069557929914</v>
       </c>
       <c r="F14">
         <v>0.7</v>
@@ -728,13 +728,13 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>0.2046948962683659</v>
+        <v>0.1342688856397471</v>
       </c>
       <c r="D15">
-        <v>0.6826381983870281</v>
+        <v>0.4781059787193656</v>
       </c>
       <c r="E15">
-        <v>0.6434194083170279</v>
+        <v>0.4238814362601612</v>
       </c>
       <c r="F15">
         <v>0.65</v>
@@ -748,13 +748,13 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>0.1871096341045675</v>
+        <v>0.1226596977770642</v>
       </c>
       <c r="D16">
-        <v>0.6115883236594966</v>
+        <v>0.4204955223876367</v>
       </c>
       <c r="E16">
-        <v>0.5583156267476601</v>
+        <v>0.3672245609502832</v>
       </c>
       <c r="F16">
         <v>0.65</v>
@@ -768,13 +768,13 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>0.1886420470006189</v>
+        <v>0.1230839326138238</v>
       </c>
       <c r="D17">
-        <v>0.6641350410867349</v>
+        <v>0.4541422074917546</v>
       </c>
       <c r="E17">
-        <v>0.5726116516626948</v>
+        <v>0.3744070733829729</v>
       </c>
       <c r="F17">
         <v>0.6</v>

--- a/cta策略/result/螺纹/Aberration_1d/绩效.xlsx
+++ b/cta策略/result/螺纹/Aberration_1d/绩效.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
   <si>
     <t>参数</t>
   </si>
@@ -34,6 +34,21 @@
     <t>绩效数据</t>
   </si>
   <si>
+    <t>[5, 0.5]</t>
+  </si>
+  <si>
+    <t>[5, 1]</t>
+  </si>
+  <si>
+    <t>[5, 1.5]</t>
+  </si>
+  <si>
+    <t>[5, 2]</t>
+  </si>
+  <si>
+    <t>[5, 3]</t>
+  </si>
+  <si>
     <t>[10, 0.5]</t>
   </si>
   <si>
@@ -46,6 +61,9 @@
     <t>[10, 2]</t>
   </si>
   <si>
+    <t>[10, 3]</t>
+  </si>
+  <si>
     <t>[20, 0.5]</t>
   </si>
   <si>
@@ -58,6 +76,24 @@
     <t>[20, 2]</t>
   </si>
   <si>
+    <t>[20, 3]</t>
+  </si>
+  <si>
+    <t>[40, 0.5]</t>
+  </si>
+  <si>
+    <t>[40, 1]</t>
+  </si>
+  <si>
+    <t>[40, 1.5]</t>
+  </si>
+  <si>
+    <t>[40, 2]</t>
+  </si>
+  <si>
+    <t>[40, 3]</t>
+  </si>
+  <si>
     <t>[60, 0.5]</t>
   </si>
   <si>
@@ -70,6 +106,39 @@
     <t>[60, 2]</t>
   </si>
   <si>
+    <t>[60, 3]</t>
+  </si>
+  <si>
+    <t>[80, 0.5]</t>
+  </si>
+  <si>
+    <t>[80, 1]</t>
+  </si>
+  <si>
+    <t>[80, 1.5]</t>
+  </si>
+  <si>
+    <t>[80, 2]</t>
+  </si>
+  <si>
+    <t>[80, 3]</t>
+  </si>
+  <si>
+    <t>[100, 0.5]</t>
+  </si>
+  <si>
+    <t>[100, 1]</t>
+  </si>
+  <si>
+    <t>[100, 1.5]</t>
+  </si>
+  <si>
+    <t>[100, 2]</t>
+  </si>
+  <si>
+    <t>[100, 3]</t>
+  </si>
+  <si>
     <t>[120, 0.5]</t>
   </si>
   <si>
@@ -80,6 +149,54 @@
   </si>
   <si>
     <t>[120, 2]</t>
+  </si>
+  <si>
+    <t>[120, 3]</t>
+  </si>
+  <si>
+    <t>[140, 0.5]</t>
+  </si>
+  <si>
+    <t>[140, 1]</t>
+  </si>
+  <si>
+    <t>[140, 1.5]</t>
+  </si>
+  <si>
+    <t>[140, 2]</t>
+  </si>
+  <si>
+    <t>[140, 3]</t>
+  </si>
+  <si>
+    <t>[160, 0.5]</t>
+  </si>
+  <si>
+    <t>[160, 1]</t>
+  </si>
+  <si>
+    <t>[160, 1.5]</t>
+  </si>
+  <si>
+    <t>[160, 2]</t>
+  </si>
+  <si>
+    <t>[160, 3]</t>
+  </si>
+  <si>
+    <t>[180, 0.5]</t>
+  </si>
+  <si>
+    <t>[180, 1]</t>
+  </si>
+  <si>
+    <t>[180, 1.5]</t>
+  </si>
+  <si>
+    <t>[180, 2]</t>
+  </si>
+  <si>
+    <t>[180, 3]</t>
   </si>
 </sst>
 </file>
@@ -437,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,16 +585,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.01506853269963249</v>
+        <v>-0.007096416677147777</v>
       </c>
       <c r="D2">
-        <v>-0.1183977270150263</v>
+        <v>-0.2221633895112277</v>
       </c>
       <c r="E2">
-        <v>0.02910038475831054</v>
+        <v>-0.02137691441476923</v>
       </c>
       <c r="F2">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -488,16 +605,16 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.06204786062431999</v>
+        <v>0.00857616291082941</v>
       </c>
       <c r="D3">
-        <v>0.1125163353958728</v>
+        <v>-0.1568814493537754</v>
       </c>
       <c r="E3">
-        <v>0.1273913687697193</v>
+        <v>0.02450052115416835</v>
       </c>
       <c r="F3">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -508,16 +625,16 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.04666659439266785</v>
+        <v>0.02433416541767719</v>
       </c>
       <c r="D4">
-        <v>0.03685792798377942</v>
+        <v>-0.08837467447543244</v>
       </c>
       <c r="E4">
-        <v>0.105905726510831</v>
+        <v>0.104016553166158</v>
       </c>
       <c r="F4">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -528,16 +645,16 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.02614800102765447</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>-0.09979451763678954</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.09920766243060283</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -548,16 +665,16 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.09873706694935658</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2806901423622146</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2563735686313929</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -568,16 +685,16 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>0.09674974285282256</v>
+        <v>-0.001342668368171873</v>
       </c>
       <c r="D7">
-        <v>0.2893154768375744</v>
+        <v>-0.1955265312188306</v>
       </c>
       <c r="E7">
-        <v>0.2204995736168905</v>
+        <v>-0.002524886587125583</v>
       </c>
       <c r="F7">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -588,16 +705,16 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>0.1067219920647593</v>
+        <v>0.04640717043238052</v>
       </c>
       <c r="D8">
-        <v>0.360320556591663</v>
+        <v>0.03256718516824657</v>
       </c>
       <c r="E8">
-        <v>0.3006224111266075</v>
+        <v>0.09176941071659273</v>
       </c>
       <c r="F8">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -608,16 +725,16 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>0.09373808894088076</v>
+        <v>0.03418991839519925</v>
       </c>
       <c r="D9">
-        <v>0.3334461810305845</v>
+        <v>-0.03181422515458059</v>
       </c>
       <c r="E9">
-        <v>0.2843309483376963</v>
+        <v>0.0742206684333116</v>
       </c>
       <c r="F9">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -628,16 +745,16 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>0.05632136641083663</v>
+        <v>0.0194417015221604</v>
       </c>
       <c r="D10">
-        <v>0.07826788342299566</v>
+        <v>-0.1461168418720361</v>
       </c>
       <c r="E10">
-        <v>0.1255294956784284</v>
+        <v>0.07066141536074085</v>
       </c>
       <c r="F10">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -648,16 +765,16 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>0.02314357042084869</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>-0.08404458628604375</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04117544487929026</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -668,16 +785,16 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>0.06010668125293539</v>
+        <v>0.08783049321238701</v>
       </c>
       <c r="D12">
-        <v>0.1102209539197009</v>
+        <v>0.228281543642633</v>
       </c>
       <c r="E12">
-        <v>0.138248098107921</v>
+        <v>0.2208270658796511</v>
       </c>
       <c r="F12">
-        <v>0.55</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -688,16 +805,16 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>0.07383808977014561</v>
+        <v>0.08971716538660335</v>
       </c>
       <c r="D13">
-        <v>0.2032240410621261</v>
+        <v>0.2532348875453633</v>
       </c>
       <c r="E13">
-        <v>0.2225488334349355</v>
+        <v>0.204023030135462</v>
       </c>
       <c r="F13">
-        <v>0.55</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -708,13 +825,13 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>0.1424548751850923</v>
+        <v>0.09861159837586442</v>
       </c>
       <c r="D14">
-        <v>0.4991111963863336</v>
+        <v>0.3157692441665949</v>
       </c>
       <c r="E14">
-        <v>0.4393069557929914</v>
+        <v>0.2778344507589277</v>
       </c>
       <c r="F14">
         <v>0.7</v>
@@ -728,13 +845,13 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>0.1342688856397471</v>
+        <v>0.08645848400027289</v>
       </c>
       <c r="D15">
-        <v>0.4781059787193656</v>
+        <v>0.2852341666417285</v>
       </c>
       <c r="E15">
-        <v>0.4238814362601612</v>
+        <v>0.2559332638080022</v>
       </c>
       <c r="F15">
         <v>0.65</v>
@@ -748,16 +865,16 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>0.1226596977770642</v>
+        <v>0.04296945099708771</v>
       </c>
       <c r="D16">
-        <v>0.4204955223876367</v>
+        <v>0.03235180241665884</v>
       </c>
       <c r="E16">
-        <v>0.3672245609502832</v>
+        <v>0.242664371303095</v>
       </c>
       <c r="F16">
-        <v>0.65</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -768,15 +885,795 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>0.1230839326138238</v>
+        <v>0.06531123197242983</v>
       </c>
       <c r="D17">
-        <v>0.4541422074917546</v>
+        <v>0.1206940077470625</v>
       </c>
       <c r="E17">
-        <v>0.3744070733829729</v>
+        <v>0.1369844664477635</v>
       </c>
       <c r="F17">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>0.08147815668300562</v>
+      </c>
+      <c r="D18">
+        <v>0.2062018660756407</v>
+      </c>
+      <c r="E18">
+        <v>0.2139041441802969</v>
+      </c>
+      <c r="F18">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>0.09438391036284299</v>
+      </c>
+      <c r="D19">
+        <v>0.289863644083013</v>
+      </c>
+      <c r="E19">
+        <v>0.2738892213835935</v>
+      </c>
+      <c r="F19">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>0.09999046054476879</v>
+      </c>
+      <c r="D20">
+        <v>0.3362700501943616</v>
+      </c>
+      <c r="E20">
+        <v>0.3516338029415347</v>
+      </c>
+      <c r="F20">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>0.0206927977813578</v>
+      </c>
+      <c r="D21">
+        <v>-0.1580700527569821</v>
+      </c>
+      <c r="E21">
+        <v>0.07577790970145844</v>
+      </c>
+      <c r="F21">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>0.05122063556992318</v>
+      </c>
+      <c r="D22">
+        <v>0.05393692784638536</v>
+      </c>
+      <c r="E22">
+        <v>0.111411275745396</v>
+      </c>
+      <c r="F22">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>0.02222238233276341</v>
+      </c>
+      <c r="D23">
+        <v>-0.08947277316240339</v>
+      </c>
+      <c r="E23">
+        <v>0.03984742954751722</v>
+      </c>
+      <c r="F23">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>0.05642334796572435</v>
+      </c>
+      <c r="D24">
+        <v>0.09055072087385331</v>
+      </c>
+      <c r="E24">
+        <v>0.1294974618506398</v>
+      </c>
+      <c r="F24">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>0.07395384143053763</v>
+      </c>
+      <c r="D25">
+        <v>0.2049451838640561</v>
+      </c>
+      <c r="E25">
+        <v>0.2244332547102589</v>
+      </c>
+      <c r="F25">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>0.0629439589531815</v>
+      </c>
+      <c r="D26">
+        <v>0.1710203879366093</v>
+      </c>
+      <c r="E26">
+        <v>0.2477477365590326</v>
+      </c>
+      <c r="F26">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>0.05896797287302191</v>
+      </c>
+      <c r="D27">
+        <v>0.09383341758204032</v>
+      </c>
+      <c r="E27">
+        <v>0.134779525776209</v>
+      </c>
+      <c r="F27">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>0.1011859795638999</v>
+      </c>
+      <c r="D28">
+        <v>0.3189132738828567</v>
+      </c>
+      <c r="E28">
+        <v>0.3364912025498966</v>
+      </c>
+      <c r="F28">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>0.1051178518385261</v>
+      </c>
+      <c r="D29">
+        <v>0.3496961204721293</v>
+      </c>
+      <c r="E29">
+        <v>0.3314005172506403</v>
+      </c>
+      <c r="F29">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30">
+        <v>0.1317579601644914</v>
+      </c>
+      <c r="D30">
+        <v>0.5268675685955556</v>
+      </c>
+      <c r="E30">
+        <v>0.5402244375497132</v>
+      </c>
+      <c r="F30">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31">
+        <v>0.0539284221884293</v>
+      </c>
+      <c r="D31">
+        <v>0.08700262896624468</v>
+      </c>
+      <c r="E31">
+        <v>0.1888472910006367</v>
+      </c>
+      <c r="F31">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32">
+        <v>0.114271205230239</v>
+      </c>
+      <c r="D32">
+        <v>0.3658321071098452</v>
+      </c>
+      <c r="E32">
+        <v>0.3652034616720032</v>
+      </c>
+      <c r="F32">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33">
+        <v>0.1111498992482511</v>
+      </c>
+      <c r="D33">
+        <v>0.3610129526503937</v>
+      </c>
+      <c r="E33">
+        <v>0.352431263811717</v>
+      </c>
+      <c r="F33">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34">
+        <v>0.09311263709710205</v>
+      </c>
+      <c r="D34">
+        <v>0.275462832240286</v>
+      </c>
+      <c r="E34">
+        <v>0.2613732328509147</v>
+      </c>
+      <c r="F34">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35">
+        <v>0.1270860220599677</v>
+      </c>
+      <c r="D35">
+        <v>0.4825770319215651</v>
+      </c>
+      <c r="E35">
+        <v>0.4404207816215396</v>
+      </c>
+      <c r="F35">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>0.07564881461294792</v>
+      </c>
+      <c r="D36">
+        <v>0.206177229752997</v>
+      </c>
+      <c r="E36">
+        <v>0.2317485450940286</v>
+      </c>
+      <c r="F36">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37">
+        <v>0.1397165594432892</v>
+      </c>
+      <c r="D37">
+        <v>0.4858115240087481</v>
+      </c>
+      <c r="E37">
+        <v>0.4289693682684473</v>
+      </c>
+      <c r="F37">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38">
+        <v>0.1317474542144652</v>
+      </c>
+      <c r="D38">
+        <v>0.4660545805569083</v>
+      </c>
+      <c r="E38">
+        <v>0.4177414654157771</v>
+      </c>
+      <c r="F38">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39">
+        <v>0.1218454447573478</v>
+      </c>
+      <c r="D39">
+        <v>0.4192259075347473</v>
+      </c>
+      <c r="E39">
+        <v>0.3714330841440892</v>
+      </c>
+      <c r="F39">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40">
+        <v>0.1200191867389628</v>
+      </c>
+      <c r="D40">
+        <v>0.4366991021783534</v>
+      </c>
+      <c r="E40">
+        <v>0.3676762425483211</v>
+      </c>
+      <c r="F40">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41">
+        <v>0.05054859900666164</v>
+      </c>
+      <c r="D41">
+        <v>0.0615195349299023</v>
+      </c>
+      <c r="E41">
+        <v>0.1424628378613769</v>
+      </c>
+      <c r="F41">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42">
+        <v>0.1786600416864923</v>
+      </c>
+      <c r="D42">
+        <v>0.6703747019168226</v>
+      </c>
+      <c r="E42">
+        <v>0.580361965342558</v>
+      </c>
+      <c r="F42">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43">
+        <v>0.1501439202738342</v>
+      </c>
+      <c r="D43">
+        <v>0.5456044545055021</v>
+      </c>
+      <c r="E43">
+        <v>0.4611282128931971</v>
+      </c>
+      <c r="F43">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44">
+        <v>0.1095080146533376</v>
+      </c>
+      <c r="D44">
+        <v>0.354143064654343</v>
+      </c>
+      <c r="E44">
+        <v>0.3062618223250381</v>
+      </c>
+      <c r="F44">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45">
+        <v>0.1038918995852369</v>
+      </c>
+      <c r="D45">
+        <v>0.3431564786347993</v>
+      </c>
+      <c r="E45">
+        <v>0.3104347677754818</v>
+      </c>
+      <c r="F45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46">
+        <v>0.02997934331160512</v>
+      </c>
+      <c r="D46">
+        <v>-0.05747387728629751</v>
+      </c>
+      <c r="E46">
+        <v>0.08265335722948866</v>
+      </c>
+      <c r="F46">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47">
+        <v>0.2111571739109697</v>
+      </c>
+      <c r="D47">
+        <v>0.8149603682788208</v>
+      </c>
+      <c r="E47">
+        <v>0.7165533720824671</v>
+      </c>
+      <c r="F47">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48">
+        <v>0.181146509662975</v>
+      </c>
+      <c r="D48">
+        <v>0.6865215660504776</v>
+      </c>
+      <c r="E48">
+        <v>0.6147133906741035</v>
+      </c>
+      <c r="F48">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>0.1747818808724753</v>
+      </c>
+      <c r="D49">
+        <v>0.6560963143535545</v>
+      </c>
+      <c r="E49">
+        <v>0.5931152790048866</v>
+      </c>
+      <c r="F49">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50">
+        <v>0.1685808558463624</v>
+      </c>
+      <c r="D50">
+        <v>0.6287645679196652</v>
+      </c>
+      <c r="E50">
+        <v>0.5720723501262184</v>
+      </c>
+      <c r="F50">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51">
+        <v>0.0455363414643466</v>
+      </c>
+      <c r="D51">
+        <v>0.03028476108778113</v>
+      </c>
+      <c r="E51">
+        <v>0.1488651672727963</v>
+      </c>
+      <c r="F51">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52">
+        <v>0.1930622990470727</v>
+      </c>
+      <c r="D52">
+        <v>0.7379244872195444</v>
+      </c>
+      <c r="E52">
+        <v>0.6551491424227028</v>
+      </c>
+      <c r="F52">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53">
+        <v>0.1953144374578322</v>
+      </c>
+      <c r="D53">
+        <v>0.7494941926085271</v>
+      </c>
+      <c r="E53">
+        <v>0.6627916834869557</v>
+      </c>
+      <c r="F53">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54">
+        <v>0.1896792602190194</v>
+      </c>
+      <c r="D54">
+        <v>0.7242710420938195</v>
+      </c>
+      <c r="E54">
+        <v>0.6436689363031155</v>
+      </c>
+      <c r="F54">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55">
+        <v>0.1828558503413849</v>
+      </c>
+      <c r="D55">
+        <v>0.6952192854244251</v>
+      </c>
+      <c r="E55">
+        <v>0.6205139694774037</v>
+      </c>
+      <c r="F55">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56">
+        <v>0.1403297255573124</v>
+      </c>
+      <c r="D56">
+        <v>0.5011325572310933</v>
+      </c>
+      <c r="E56">
+        <v>0.382957077849461</v>
+      </c>
+      <c r="F56">
         <v>0.6</v>
       </c>
     </row>
